--- a/biology/Médecine/Eau_de_Luce/Eau_de_Luce.xlsx
+++ b/biology/Médecine/Eau_de_Luce/Eau_de_Luce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'eau de Luce est une ancienne préparation pharmaceutique dont le principal ingrédient est l'ammoniaque. Elle était en particulier utilisée sur les morsures de vipères ou les piqûres d'abeilles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eau de Luce est une ancienne préparation pharmaceutique dont le principal ingrédient est l'ammoniaque. Elle était en particulier utilisée sur les morsures de vipères ou les piqûres d'abeilles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve une recette dans le Dictionnaire portatif de santé[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve une recette dans le Dictionnaire portatif de santé : 
 « Mettez dans un flacon de cristal à eau de luce, quelques gouttes d'huile blanche de karabé rectifiée, versez dessus le double de bon esprit volatil de sel ammoniac ; bouchez le flacon avec son bouchon de cristal, et tenez-le dans la poche de la culotte pendant quelques jours ; la plus grande partie de l'huile se dissoudra : ajoutez-y pour lors une pareille quantité du même esprit volatil de sel ammoniac, et après avoir laissé le tout en digestion à la même chaleur pendant quelques jours encore, vous trouverez l'huile de karabé entièrement combinée avec l'alcali volatil, sous la forme et la consistance d'un lait clair de couleur jaunâtre. Conservez-le exactement fermé dans le même flacon.
 Pour faire l'eau de luce, il suffit de verser quelques gouttes de ce savon succiné sur de l'esprit volatil de sel ammoniac bien vigoureux ; on y ajoute plus ou moins, suivant la blancheur et l'odeur de karabé qu'on veut donner à l'eau. »
 </t>
